--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.833119</v>
+        <v>2.971347333333334</v>
       </c>
       <c r="H2">
-        <v>113.499357</v>
+        <v>8.914042</v>
       </c>
       <c r="I2">
-        <v>0.2771305381131279</v>
+        <v>0.02922956310646057</v>
       </c>
       <c r="J2">
-        <v>0.2771305381131279</v>
+        <v>0.02922956310646057</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>243.7171333333333</v>
+        <v>0.036961</v>
       </c>
       <c r="N2">
-        <v>731.1514</v>
+        <v>0.110883</v>
       </c>
       <c r="O2">
-        <v>0.9993032963424349</v>
+        <v>0.1786608532565087</v>
       </c>
       <c r="P2">
-        <v>0.999303296342435</v>
+        <v>0.1786608532565087</v>
       </c>
       <c r="Q2">
-        <v>9220.579307738866</v>
+        <v>0.1098239687873333</v>
       </c>
       <c r="R2">
-        <v>82985.21376964978</v>
+        <v>0.988415719086</v>
       </c>
       <c r="S2">
-        <v>0.2769374602536014</v>
+        <v>0.005222178684915211</v>
       </c>
       <c r="T2">
-        <v>0.2769374602536015</v>
+        <v>0.005222178684915211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.833119</v>
+        <v>2.971347333333334</v>
       </c>
       <c r="H3">
-        <v>113.499357</v>
+        <v>8.914042</v>
       </c>
       <c r="I3">
-        <v>0.2771305381131279</v>
+        <v>0.02922956310646057</v>
       </c>
       <c r="J3">
-        <v>0.2771305381131279</v>
+        <v>0.02922956310646057</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,25 +617,25 @@
         <v>0.1280236666666667</v>
       </c>
       <c r="N3">
-        <v>0.3840710000000001</v>
+        <v>0.384071</v>
       </c>
       <c r="O3">
-        <v>0.0005249301530839377</v>
+        <v>0.6188365445657183</v>
       </c>
       <c r="P3">
-        <v>0.0005249301530839377</v>
+        <v>0.6188365445657182</v>
       </c>
       <c r="Q3">
-        <v>4.843534615816333</v>
+        <v>0.3804027805535556</v>
       </c>
       <c r="R3">
-        <v>43.591811542347</v>
+        <v>3.423625024982</v>
       </c>
       <c r="S3">
-        <v>0.0001454741757959583</v>
+        <v>0.01808832183196767</v>
       </c>
       <c r="T3">
-        <v>0.0001454741757959583</v>
+        <v>0.01808832183196766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.833119</v>
+        <v>2.971347333333334</v>
       </c>
       <c r="H4">
-        <v>113.499357</v>
+        <v>8.914042</v>
       </c>
       <c r="I4">
-        <v>0.2771305381131279</v>
+        <v>0.02922956310646057</v>
       </c>
       <c r="J4">
-        <v>0.2771305381131279</v>
+        <v>0.02922956310646057</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.12568</v>
       </c>
       <c r="O4">
-        <v>0.0001717735044811748</v>
+        <v>0.202502602177773</v>
       </c>
       <c r="P4">
-        <v>0.0001717735044811748</v>
+        <v>0.202502602177773</v>
       </c>
       <c r="Q4">
-        <v>1.584955465306666</v>
+        <v>0.1244796442844444</v>
       </c>
       <c r="R4">
-        <v>14.26459918776</v>
+        <v>1.12031679856</v>
       </c>
       <c r="S4">
-        <v>4.760368373044575E-05</v>
+        <v>0.005919062589577697</v>
       </c>
       <c r="T4">
-        <v>4.760368373044575E-05</v>
+        <v>0.005919062589577696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>191.650094</v>
       </c>
       <c r="I5">
-        <v>0.4679506129682439</v>
+        <v>0.6284296749927923</v>
       </c>
       <c r="J5">
-        <v>0.467950612968244</v>
+        <v>0.6284296749927923</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>243.7171333333333</v>
+        <v>0.036961</v>
       </c>
       <c r="N5">
-        <v>731.1514</v>
+        <v>0.110883</v>
       </c>
       <c r="O5">
-        <v>0.9993032963424349</v>
+        <v>0.1786608532565087</v>
       </c>
       <c r="P5">
-        <v>0.999303296342435</v>
+        <v>0.1786608532565087</v>
       </c>
       <c r="Q5">
-        <v>15569.47050424796</v>
+        <v>2.361193041444667</v>
       </c>
       <c r="R5">
-        <v>140125.2345382316</v>
+        <v>21.250737373002</v>
       </c>
       <c r="S5">
-        <v>0.4676245900646291</v>
+        <v>0.1122757819459227</v>
       </c>
       <c r="T5">
-        <v>0.4676245900646292</v>
+        <v>0.1122757819459227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>191.650094</v>
       </c>
       <c r="I6">
-        <v>0.4679506129682439</v>
+        <v>0.6284296749927923</v>
       </c>
       <c r="J6">
-        <v>0.467950612968244</v>
+        <v>0.6284296749927923</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,25 +803,25 @@
         <v>0.1280236666666667</v>
       </c>
       <c r="N6">
-        <v>0.3840710000000001</v>
+        <v>0.384071</v>
       </c>
       <c r="O6">
-        <v>0.0005249301530839377</v>
+        <v>0.6188365445657183</v>
       </c>
       <c r="P6">
-        <v>0.0005249301530839377</v>
+        <v>0.6188365445657182</v>
       </c>
       <c r="Q6">
         <v>8.178582583630446</v>
       </c>
       <c r="R6">
-        <v>73.60724325267402</v>
+        <v>73.60724325267401</v>
       </c>
       <c r="S6">
-        <v>0.0002456413869011428</v>
+        <v>0.3888952485750971</v>
       </c>
       <c r="T6">
-        <v>0.0002456413869011428</v>
+        <v>0.3888952485750969</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>191.650094</v>
       </c>
       <c r="I7">
-        <v>0.4679506129682439</v>
+        <v>0.6284296749927923</v>
       </c>
       <c r="J7">
-        <v>0.467950612968244</v>
+        <v>0.6284296749927923</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.12568</v>
       </c>
       <c r="O7">
-        <v>0.0001717735044811748</v>
+        <v>0.202502602177773</v>
       </c>
       <c r="P7">
-        <v>0.0001717735044811748</v>
+        <v>0.202502602177773</v>
       </c>
       <c r="Q7">
         <v>2.676287090435556</v>
@@ -880,10 +880,10 @@
         <v>24.08658381392</v>
       </c>
       <c r="S7">
-        <v>8.038151671366913E-05</v>
+        <v>0.1272586444717726</v>
       </c>
       <c r="T7">
-        <v>8.038151671366914E-05</v>
+        <v>0.1272586444717726</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>104.402516</v>
       </c>
       <c r="I8">
-        <v>0.2549188489186281</v>
+        <v>0.3423407619007471</v>
       </c>
       <c r="J8">
-        <v>0.2549188489186282</v>
+        <v>0.3423407619007471</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>243.7171333333333</v>
+        <v>0.036961</v>
       </c>
       <c r="N8">
-        <v>731.1514</v>
+        <v>0.110883</v>
       </c>
       <c r="O8">
-        <v>0.9993032963424349</v>
+        <v>0.1786608532565087</v>
       </c>
       <c r="P8">
-        <v>0.999303296342435</v>
+        <v>0.1786608532565087</v>
       </c>
       <c r="Q8">
-        <v>8481.560637435821</v>
+        <v>1.286273797958667</v>
       </c>
       <c r="R8">
-        <v>76334.04573692239</v>
+        <v>11.576464181628</v>
       </c>
       <c r="S8">
-        <v>0.2547412460242042</v>
+        <v>0.06116289262567074</v>
       </c>
       <c r="T8">
-        <v>0.2547412460242043</v>
+        <v>0.06116289262567074</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>104.402516</v>
       </c>
       <c r="I9">
-        <v>0.2549188489186281</v>
+        <v>0.3423407619007471</v>
       </c>
       <c r="J9">
-        <v>0.2549188489186282</v>
+        <v>0.3423407619007471</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,25 +989,25 @@
         <v>0.1280236666666667</v>
       </c>
       <c r="N9">
-        <v>0.3840710000000001</v>
+        <v>0.384071</v>
       </c>
       <c r="O9">
-        <v>0.0005249301530839377</v>
+        <v>0.6188365445657183</v>
       </c>
       <c r="P9">
-        <v>0.0005249301530839377</v>
+        <v>0.6188365445657182</v>
       </c>
       <c r="Q9">
         <v>4.455330969181778</v>
       </c>
       <c r="R9">
-        <v>40.097978722636</v>
+        <v>40.09797872263599</v>
       </c>
       <c r="S9">
-        <v>0.0001338145903868367</v>
+        <v>0.2118529741586536</v>
       </c>
       <c r="T9">
-        <v>0.0001338145903868367</v>
+        <v>0.2118529741586536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>104.402516</v>
       </c>
       <c r="I10">
-        <v>0.2549188489186281</v>
+        <v>0.3423407619007471</v>
       </c>
       <c r="J10">
-        <v>0.2549188489186282</v>
+        <v>0.3423407619007471</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.12568</v>
       </c>
       <c r="O10">
-        <v>0.0001717735044811748</v>
+        <v>0.202502602177773</v>
       </c>
       <c r="P10">
-        <v>0.0001717735044811748</v>
+        <v>0.202502602177773</v>
       </c>
       <c r="Q10">
         <v>1.457923134542222</v>
@@ -1066,10 +1066,10 @@
         <v>13.12130821088</v>
       </c>
       <c r="S10">
-        <v>4.378830403705989E-05</v>
+        <v>0.0693248951164227</v>
       </c>
       <c r="T10">
-        <v>4.37883040370599E-05</v>
+        <v>0.0693248951164227</v>
       </c>
     </row>
   </sheetData>
